--- a/output/DiagnosticReport/practitionerrole-ident-1.xlsx
+++ b/output/DiagnosticReport/practitionerrole-ident-1.xlsx
@@ -680,7 +680,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-npio-0:NPIO length is exactly 33 characters {value.length() = 33}</t>
+inv-npio-0:NPIO length is exactly 33 characters {value.length() = 33}inv-npio-1:NPIO value shall start with '800361', then 10 digits, then '@', then '800362' and ends with 10 digits {value.matches('^(800361)([0-9]{10})(@)(800362)([0-9]{10})$')}</t>
   </si>
   <si>
     <t>Coded identifier type for national provider identifier at organisation</t>

--- a/output/DiagnosticReport/practitionerrole-ident-1.xlsx
+++ b/output/DiagnosticReport/practitionerrole-ident-1.xlsx
@@ -680,7 +680,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-npio-0:NPIO length is exactly 33 characters {value.length() = 33}inv-npio-1:NPIO value shall start with '800361', then 10 digits, then '@', then '800362' and ends with 10 digits {value.matches('^(800361)([0-9]{10})(@)(800362)([0-9]{10})$')}</t>
+inv-npio-0:NPIO length is exactly 33 characters {value.length() = 33}</t>
   </si>
   <si>
     <t>Coded identifier type for national provider identifier at organisation</t>

--- a/output/DiagnosticReport/practitionerrole-ident-1.xlsx
+++ b/output/DiagnosticReport/practitionerrole-ident-1.xlsx
@@ -146,14 +146,14 @@
     <t>*</t>
   </si>
   <si>
-    <t>A practitioner in a healthcare role in an Australian healthcare context</t>
+    <t>A person with formal responsibility in a role providing one or more services</t>
   </si>
   <si>
     <t>A specific set of Roles/Locations/specialties/services that a practitioner may perform at an organization for a period of time.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-prarol-01:At least one practitioner role identifier shall at least have a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-prarol-02:If present, a practitioner shall at least have a reference, an identifier or a display {practitioner.exists() implies practitioner.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prarol-03:If present, an organization shall at least have a reference, an identifier or a display {organization.exists() implies organization.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prarol-04:If present, a location shall at least have a reference, an identifier or a display {location.exists() implies location.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prarol-05:If present, a healthcare service shall at least have a reference, an identifier or a display {healthcareService.exists() implies healthcareService.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}inv-dh-prarol-01:At least one practitioner role identifier shall at least have a system and a value {identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-prarol-02:If present, a practitioner shall at least have a reference, an identifier or a display {practitioner.exists() implies practitioner.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}inv-dh-prarol-03:If present, an organization shall at least have a reference, an identifier or a display {organization.exists() implies organization.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -903,7 +903,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/practitioner-dh-base-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitioner-dh-base-1)
 </t>
   </si>
   <si>
@@ -919,7 +919,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/organization-dh-base-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-dh-base-1)
 </t>
   </si>
   <si>
@@ -8285,7 +8285,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>305</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
@@ -8394,7 +8394,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>312</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>

--- a/output/DiagnosticReport/practitionerrole-ident-1.xlsx
+++ b/output/DiagnosticReport/practitionerrole-ident-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="256">
   <si>
     <t>Path</t>
   </si>
@@ -687,6 +687,56 @@
     <t>The timezone is expected to be for where this HealthcareService is provided at.</t>
   </si>
   <si>
+    <t>PractitionerRole.availableTime.availableStartTime.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.availableStartTime.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>timeZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/au-timezone}
+</t>
+  </si>
+  <si>
+    <t>AU Time Zone</t>
+  </si>
+  <si>
+    <t>Australian time zone.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.availableStartTime.value</t>
+  </si>
+  <si>
+    <t>Primitive value for time</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>time.value</t>
+  </si>
+  <si>
     <t>PractitionerRole.availableTime.availableEndTime</t>
   </si>
   <si>
@@ -694,6 +744,15 @@
   </si>
   <si>
     <t>The closing time of day. Note: If the AllDay flag is set, then this time is ignored.</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.availableEndTime.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.availableEndTime.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.availableTime.availableEndTime.value</t>
   </si>
   <si>
     <t>PractitionerRole.notAvailable</t>
@@ -905,7 +964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM36"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -914,7 +973,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.65234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="54.92578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3971,7 +4030,7 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>215</v>
@@ -3979,9 +4038,7 @@
       <c r="L28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4030,7 +4087,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4042,13 +4099,13 @@
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4082,7 +4139,7 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>182</v>
+        <v>96</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>218</v>
@@ -4127,19 +4184,17 @@
         <v>40</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4151,13 +4206,13 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4168,9 +4223,11 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4191,13 +4248,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4248,25 +4305,25 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4277,18 +4334,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>40</v>
@@ -4300,17 +4357,15 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4359,25 +4414,25 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4388,43 +4443,41 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4472,25 +4525,25 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4501,7 +4554,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4509,7 +4562,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>50</v>
@@ -4527,10 +4580,10 @@
         <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4581,10 +4634,10 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>50</v>
@@ -4593,13 +4646,13 @@
         <v>40</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4610,7 +4663,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4621,7 +4674,7 @@
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>40</v>
@@ -4633,13 +4686,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4678,37 +4731,35 @@
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="AB34" s="2"/>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4719,9 +4770,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C35" t="s" s="2">
         <v>40</v>
       </c>
@@ -4742,13 +4795,13 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4799,25 +4852,25 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -4828,7 +4881,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4839,7 +4892,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -4851,18 +4904,16 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
       </c>
@@ -4910,35 +4961,915 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI36" t="s" s="2">
+      <c r="G37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AJ37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AL38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM36">
+  <autoFilter ref="A1:AM44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4948,7 +5879,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI35">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/practitionerrole-ident-1.xlsx
+++ b/output/DiagnosticReport/practitionerrole-ident-1.xlsx
@@ -462,7 +462,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-dh-base-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-identified-1)
 </t>
   </si>
   <si>

--- a/output/DiagnosticReport/practitionerrole-ident-1.xlsx
+++ b/output/DiagnosticReport/practitionerrole-ident-1.xlsx
@@ -446,7 +446,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitioner-dh-base-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitioner-identified-1)
 </t>
   </si>
   <si>
